--- a/medicine/Sexualité et sexologie/L'École_de_la_sensualité/L'École_de_la_sensualité.xlsx
+++ b/medicine/Sexualité et sexologie/L'École_de_la_sensualité/L'École_de_la_sensualité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27%C3%89cole_de_la_sensualit%C3%A9</t>
+          <t>L'École_de_la_sensualité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’École de la sensualité (官能教室 愛のテクニック, Kanno kyoshitsu: ai no technique?) est un film érotique japonais réalisé par Noboru Tanaka, sorti en 1972.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27%C3%89cole_de_la_sensualit%C3%A9</t>
+          <t>L'École_de_la_sensualité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tourmenté par ses premières envies sexuelles, un jeune étudiant vierge, Isao, est fou amoureux de sa professeure d'éducation physique, la ravissante Ikuko. Prêt à tout pour le lui faire savoir, il profite, lors d'un cours, d'un questionnaire sur la sexualité censé être anonyme pour lui avouer ce qu'il éprouve pour elle. À la fin de sa lettre d'amour, il signe et lui donne rendez-vous. Mais celle-ci rejette gentiment ses avances. Lorsqu'il apprend qu'elle s'apprête à épouser l'un de ses collègues, un professeur de chimie, Isao tente de l'évincer et l'éloigner d'elle même s'il doit le tuer.. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27%C3%89cole_de_la_sensualit%C3%A9</t>
+          <t>L'École_de_la_sensualité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : エロス学園 感度ばつぐん (Kanno kyoshitsu: ai no technique?)
-Titre français : L’École de la sensualité[1]
+Titre français : L’École de la sensualité
 Réalisation : Noboru Tanaka
 Scénario : Takehiro Nakajima
 Montage : Toyoharu Nishimura
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27%C3%89cole_de_la_sensualit%C3%A9</t>
+          <t>L'École_de_la_sensualité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mari Tanaka : Ikuko Kikuchi
 Nobutaka Masutomi : Tetsuro Morimoto
